--- a/Group5/cal & mean results group5.xlsx
+++ b/Group5/cal & mean results group5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CatmanProjects\Exp_Meth 2022\Data\Group5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/stianrbr_ntnu_no/Documents/5. klasse/Eksperimentell/Lab exercises/Lab ex 1/Code/Group5/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_1529729EB33DCB37CB13EFB14213FEF69CD333EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2D026E-8813-4ED0-ADE0-89C0F7F8B388}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="3"/>
+    <workbookView xWindow="-17657" yWindow="6009" windowWidth="17760" windowHeight="12651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cal rtm" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
     <sheet name="cal wp" sheetId="3" r:id="rId3"/>
     <sheet name="Results resistance test" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -104,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +169,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -169,7 +181,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -242,7 +253,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -252,6 +263,50 @@
                   <c:y val="-0.20797499270924469"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -514,7 +569,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -526,7 +581,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -871,7 +925,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -883,7 +937,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2922,7 +2975,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2957,7 +3016,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2992,7 +3057,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3272,16 +3343,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -3313,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -3355,7 +3430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -3376,7 +3451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -3387,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3398,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3409,17 +3484,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -3430,7 +3505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -3452,7 +3527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -3463,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -3474,7 +3549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -3485,17 +3560,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -3506,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -3517,7 +3592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -3528,7 +3603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -3539,7 +3614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -3550,7 +3625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -3561,17 +3636,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3582,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -3593,7 +3668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -3604,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -3615,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>7</v>
       </c>
@@ -3626,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -3644,16 +3719,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +3739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -3678,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3695,7 +3770,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -3712,7 +3787,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -3729,7 +3804,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -3740,7 +3815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3751,7 +3826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3762,17 +3837,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -3783,7 +3858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -3794,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -3805,7 +3880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -3816,7 +3891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -3827,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -3838,17 +3913,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -3859,7 +3934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -3870,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -3881,7 +3956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -3892,7 +3967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -3903,7 +3978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -3914,17 +3989,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3935,7 +4010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -3946,7 +4021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -3957,7 +4032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -3968,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>7</v>
       </c>
@@ -3979,7 +4054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -3997,16 +4072,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>14</v>
       </c>
@@ -4014,7 +4089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -4025,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4039,7 +4114,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -4056,7 +4131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -4073,7 +4148,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4165,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -4107,7 +4182,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -4118,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -4129,17 +4204,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -4150,7 +4225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -4161,7 +4236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -4172,7 +4247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -4183,7 +4258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -4194,7 +4269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -4205,17 +4280,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -4226,7 +4301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -4237,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -4248,7 +4323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>6</v>
       </c>
@@ -4259,7 +4334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -4270,7 +4345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -4281,17 +4356,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -4302,7 +4377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -4313,7 +4388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -4324,7 +4399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>6</v>
       </c>
@@ -4335,7 +4410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>7</v>
       </c>
@@ -4346,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>8</v>
       </c>
@@ -4357,17 +4432,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C40">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -4378,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>3</v>
       </c>
@@ -4389,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>4</v>
       </c>
@@ -4400,7 +4475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>6</v>
       </c>
@@ -4411,7 +4486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>7</v>
       </c>
@@ -4422,7 +4497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>8</v>
       </c>
@@ -4433,17 +4508,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C49">
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>1</v>
       </c>
@@ -4454,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>3</v>
       </c>
@@ -4465,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>4</v>
       </c>
@@ -4476,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>6</v>
       </c>
@@ -4487,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>7</v>
       </c>
@@ -4498,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>8</v>
       </c>
@@ -4516,16 +4591,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -4604,7 +4679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -4651,7 +4726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -4698,7 +4773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -4745,7 +4820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -4792,7 +4867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -4839,7 +4914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -4856,7 +4931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -4903,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -4950,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -4997,7 +5072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -5044,7 +5119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -5091,7 +5166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -5138,7 +5213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -5155,7 +5230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -5202,7 +5277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +5324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -5296,7 +5371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -5343,7 +5418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -5390,7 +5465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -5437,7 +5512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -5454,7 +5529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -5501,7 +5576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>3</v>
       </c>
@@ -5548,7 +5623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -5595,7 +5670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -5642,7 +5717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>7</v>
       </c>
@@ -5689,7 +5764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>8</v>
       </c>

--- a/Group5/cal & mean results group5.xlsx
+++ b/Group5/cal & mean results group5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/stianrbr_ntnu_no/Documents/5. klasse/Eksperimentell/Lab exercises/Lab ex 1/Code/Group5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_1529729EB33DCB37CB13EFB14213FEF69CD333EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2D026E-8813-4ED0-ADE0-89C0F7F8B388}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_1529729EB33DCB37CB13EFB14213FEF69CD333EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A91AA4C4-48B4-4EEB-80B9-3CF785807064}"/>
   <bookViews>
-    <workbookView xWindow="-17657" yWindow="6009" windowWidth="17760" windowHeight="12651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-28905" yWindow="-540" windowWidth="13110" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cal rtm" sheetId="1" r:id="rId1"/>
@@ -3346,7 +3346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3720,15 +3720,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F36"/>
+  <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3769,8 +3769,20 @@
       <c r="F4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f>F4-F3</f>
+        <v>0.1</v>
+      </c>
+      <c r="M4">
+        <f>E4-E3</f>
+        <v>7.690000000000001E-2</v>
+      </c>
+      <c r="N4">
+        <f>L4/M4</f>
+        <v>1.3003901170351104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -3786,8 +3798,20 @@
       <c r="F5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <f t="shared" ref="L5:L6" si="0">F5-F4</f>
+        <v>0.1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M6" si="1">E5-E4</f>
+        <v>7.5099999999999972E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N6" si="2">L5/M5</f>
+        <v>1.331557922769641</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -3803,8 +3827,20 @@
       <c r="F6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>1.3140604467805517</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -3815,7 +3851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3826,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3837,17 +3873,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -3858,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>3</v>
       </c>
@@ -3869,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -3880,7 +3916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>6</v>
       </c>
